--- a/1/tex/data/Sešit1.xlsx
+++ b/1/tex/data/Sešit1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Step</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>VGP</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
   <si>
     <t>Id1</t>
@@ -1613,2113 +1619,3523 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="17.421875"/>
+    <col customWidth="1" min="8" max="8" width="10.421875"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" ht="14.25">
       <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="16">
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="16">
         <v>0.19999999999999998</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B3" s="17">
         <v>1.23536e-05</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C3" s="17">
         <v>1.5916599999999999e-05</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D3" s="17">
         <v>1.41146e-05</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>224534</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>0.31553599999999998</v>
       </c>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="16">
+      <c r="H3" s="17">
+        <v>4.9499300000000002e-06</v>
+      </c>
+      <c r="I3" s="17">
+        <v>3.7064199999999999e-06</v>
+      </c>
+      <c r="J3" s="17">
+        <v>4.3248999999999999e-06</v>
+      </c>
+      <c r="K3">
+        <v>643338</v>
+      </c>
+      <c r="L3">
+        <v>0.35940499999999997</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="16">
         <v>0.29999999999999999</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B4" s="17">
         <v>1.11815e-05</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C4" s="17">
         <v>1.30291e-05</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D4" s="17">
         <v>1.21111e-05</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>432993</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>0.190693</v>
       </c>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="16">
+      <c r="H4" s="17">
+        <v>4.8475099999999996e-06</v>
+      </c>
+      <c r="I4" s="17">
+        <v>3.8732800000000001e-06</v>
+      </c>
+      <c r="J4" s="17">
+        <v>4.3569300000000001e-06</v>
+      </c>
+      <c r="K4">
+        <v>821159</v>
+      </c>
+      <c r="L4">
+        <v>0.27950700000000001</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="16">
         <v>0.39999999999999997</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B5" s="17">
         <v>1.23206e-05</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C5" s="17">
         <v>1.37999e-05</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D5" s="17">
         <v>1.30728e-05</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>540795</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>0.14144799999999999</v>
       </c>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="16">
+      <c r="H5" s="17">
+        <v>4.83864e-06</v>
+      </c>
+      <c r="I5" s="17">
+        <v>4.0168500000000003e-06</v>
+      </c>
+      <c r="J5" s="17">
+        <v>4.4246199999999997e-06</v>
+      </c>
+      <c r="K5">
+        <v>973491</v>
+      </c>
+      <c r="L5">
+        <v>0.23216200000000001</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="16">
         <v>0.5</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B6" s="17">
         <v>1.39181e-05</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C6" s="17">
         <v>1.53035e-05</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D6" s="17">
         <v>1.46257e-05</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>577448</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>0.118405</v>
       </c>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="16">
+      <c r="H6" s="17">
+        <v>4.9117599999999999e-06</v>
+      </c>
+      <c r="I6" s="17">
+        <v>4.1846100000000004e-06</v>
+      </c>
+      <c r="J6" s="17">
+        <v>4.5454900000000001e-06</v>
+      </c>
+      <c r="K6" s="17">
+        <v>1100180</v>
+      </c>
+      <c r="L6">
+        <v>0.199965</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="16">
         <v>0.59999999999999998</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B7" s="17">
         <v>1.54795e-05</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C7" s="17">
         <v>1.6830600000000001e-05</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D7" s="17">
         <v>1.6171099999999998e-05</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>592080</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>0.10444299999999999</v>
       </c>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="16">
+      <c r="H7" s="17">
+        <v>5.01542e-06</v>
+      </c>
+      <c r="I7" s="17">
+        <v>4.35407e-06</v>
+      </c>
+      <c r="J7" s="17">
+        <v>4.6824399999999997e-06</v>
+      </c>
+      <c r="K7" s="17">
+        <v>1209640</v>
+      </c>
+      <c r="L7">
+        <v>0.17655100000000001</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="16">
         <v>0.69999999999999996</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B8" s="17">
         <v>1.6867999999999998e-05</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C8" s="17">
         <v>1.81929e-05</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D8" s="17">
         <v>1.7547e-05</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>603839</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>0.094379099999999994</v>
       </c>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="16">
+      <c r="H8" s="17">
+        <v>5.1236200000000001e-06</v>
+      </c>
+      <c r="I8" s="17">
+        <v>4.5119900000000003e-06</v>
+      </c>
+      <c r="J8" s="17">
+        <v>4.8158499999999998e-06</v>
+      </c>
+      <c r="K8" s="17">
+        <v>1307990</v>
+      </c>
+      <c r="L8">
+        <v>0.15875300000000001</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="16">
         <v>0.79999999999999993</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B9" s="17">
         <v>1.8060899999999998e-05</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C9" s="17">
         <v>1.9355999999999999e-05</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D9" s="17">
         <v>1.8725200000000002e-05</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>617669</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>0.086460400000000007</v>
       </c>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="16">
+      <c r="H9" s="17">
+        <v>5.2256899999999999e-06</v>
+      </c>
+      <c r="I9" s="17">
+        <v>4.6537900000000004e-06</v>
+      </c>
+      <c r="J9" s="17">
+        <v>4.9380799999999997e-06</v>
+      </c>
+      <c r="K9" s="17">
+        <v>1398850</v>
+      </c>
+      <c r="L9">
+        <v>0.14476800000000001</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="16">
         <v>0.89999999999999991</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B10" s="17">
         <v>1.9072800000000001e-05</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C10" s="17">
         <v>2.0333899999999999e-05</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D10" s="17">
         <v>1.9720100000000001e-05</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>634348</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>0.079939899999999994</v>
       </c>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="16">
+      <c r="H10" s="17">
+        <v>5.3179999999999997e-06</v>
+      </c>
+      <c r="I10" s="17">
+        <v>4.77902e-06</v>
+      </c>
+      <c r="J10" s="17">
+        <v>5.0471000000000003e-06</v>
+      </c>
+      <c r="K10" s="17">
+        <v>1484290</v>
+      </c>
+      <c r="L10">
+        <v>0.13348699999999999</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="16">
         <v>1</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B11" s="17">
         <v>1.9929399999999999e-05</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C11" s="17">
         <v>2.11533e-05</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D11" s="17">
         <v>2.0557999999999999e-05</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>653641</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>0.074418399999999996</v>
       </c>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="16">
+      <c r="H11" s="17">
+        <v>5.3998700000000002e-06</v>
+      </c>
+      <c r="I11" s="17">
+        <v>4.8888800000000002e-06</v>
+      </c>
+      <c r="J11" s="17">
+        <v>5.1431900000000003e-06</v>
+      </c>
+      <c r="K11" s="17">
+        <v>1565580</v>
+      </c>
+      <c r="L11">
+        <v>0.124192</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B12" s="17">
         <v>2.0656899999999999e-05</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C12" s="17">
         <v>2.1841800000000002e-05</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D12" s="17">
         <v>2.1265899999999999e-05</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>675159</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>0.069648399999999999</v>
       </c>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="16">
+      <c r="H12" s="17">
+        <v>5.4718599999999998e-06</v>
+      </c>
+      <c r="I12" s="17">
+        <v>4.9850900000000001e-06</v>
+      </c>
+      <c r="J12" s="17">
+        <v>5.2274799999999998e-06</v>
+      </c>
+      <c r="K12" s="17">
+        <v>1643490</v>
+      </c>
+      <c r="L12">
+        <v>0.116397</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="16">
         <v>1.2</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B13" s="17">
         <v>2.12787e-05</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C13" s="17">
         <v>2.2423900000000001e-05</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D13" s="17">
         <v>2.18675e-05</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>698553</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>0.065463900000000005</v>
       </c>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="16">
+      <c r="H13" s="17">
+        <v>5.5349299999999997e-06</v>
+      </c>
+      <c r="I13" s="17">
+        <v>5.0694199999999998e-06</v>
+      </c>
+      <c r="J13" s="17">
+        <v>5.3013499999999996e-06</v>
+      </c>
+      <c r="K13" s="17">
+        <v>1718550</v>
+      </c>
+      <c r="L13">
+        <v>0.109762</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="16">
         <v>1.3</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B14" s="17">
         <v>2.1813900000000001e-05</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C14" s="17">
         <v>2.29196e-05</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D14" s="17">
         <v>2.2382699999999998e-05</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>723540</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>0.061748299999999999</v>
       </c>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="16">
+      <c r="H14" s="17">
+        <v>5.5901500000000002e-06</v>
+      </c>
+      <c r="I14" s="17">
+        <v>5.1435e-06</v>
+      </c>
+      <c r="J14" s="17">
+        <v>5.3661600000000001e-06</v>
+      </c>
+      <c r="K14" s="17">
+        <v>1791110</v>
+      </c>
+      <c r="L14">
+        <v>0.104043</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="16">
         <v>1.3999999999999999</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B15" s="17">
         <v>2.22783e-05</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C15" s="17">
         <v>2.3345100000000001e-05</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D15" s="17">
         <v>2.2827400000000001e-05</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>749906</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>0.058416799999999998</v>
       </c>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="16">
+      <c r="H15" s="17">
+        <v>5.6385899999999998e-06</v>
+      </c>
+      <c r="I15" s="17">
+        <v>5.2088099999999999e-06</v>
+      </c>
+      <c r="J15" s="17">
+        <v>5.4231699999999996e-06</v>
+      </c>
+      <c r="K15" s="17">
+        <v>1861440</v>
+      </c>
+      <c r="L15">
+        <v>0.099060099999999998</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="16">
         <v>1.5</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B16" s="17">
         <v>2.2684299999999999e-05</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C16" s="17">
         <v>2.3713299999999999e-05</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D16" s="17">
         <v>2.3214199999999999e-05</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>777478</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>0.0554061</v>
       </c>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="16">
+      <c r="H16" s="17">
+        <v>5.6811700000000004e-06</v>
+      </c>
+      <c r="I16" s="17">
+        <v>5.2666100000000004e-06</v>
+      </c>
+      <c r="J16" s="17">
+        <v>5.4734799999999996e-06</v>
+      </c>
+      <c r="K16" s="17">
+        <v>1929740</v>
+      </c>
+      <c r="L16">
+        <v>0.094675700000000002</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="16">
         <v>1.5999999999999999</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B17" s="17">
         <v>2.3042000000000001e-05</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C17" s="17">
         <v>2.4034400000000001e-05</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D17" s="17">
         <v>2.35533e-05</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>806123</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>0.052668</v>
       </c>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="16">
+      <c r="H17" s="17">
+        <v>5.7187400000000002e-06</v>
+      </c>
+      <c r="I17" s="17">
+        <v>5.3179700000000002e-06</v>
+      </c>
+      <c r="J17" s="17">
+        <v>5.5180600000000003e-06</v>
+      </c>
+      <c r="K17" s="17">
+        <v>1996160</v>
+      </c>
+      <c r="L17">
+        <v>0.0907858</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="16">
         <v>1.7</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B18" s="17">
         <v>2.3359100000000001e-05</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C18" s="17">
         <v>2.43164e-05</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D18" s="17">
         <v>2.3852599999999999e-05</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>835728</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0.050164800000000002</v>
       </c>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="16">
+      <c r="H18" s="17">
+        <v>5.75201e-06</v>
+      </c>
+      <c r="I18" s="17">
+        <v>5.3638199999999999e-06</v>
+      </c>
+      <c r="J18" s="17">
+        <v>5.55771e-06</v>
+      </c>
+      <c r="K18" s="17">
+        <v>2060850</v>
+      </c>
+      <c r="L18">
+        <v>0.087308800000000006</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="16">
         <v>1.7999999999999998</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B19" s="17">
         <v>2.3642199999999999e-05</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C19" s="17">
         <v>2.4565800000000001e-05</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D19" s="17">
         <v>2.41186e-05</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>866204</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>0.047866100000000002</v>
       </c>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="16">
+      <c r="H19" s="17">
+        <v>5.7815800000000001e-06</v>
+      </c>
+      <c r="I19" s="17">
+        <v>5.4049200000000003e-06</v>
+      </c>
+      <c r="J19" s="17">
+        <v>5.5931400000000001e-06</v>
+      </c>
+      <c r="K19" s="17">
+        <v>2123910</v>
+      </c>
+      <c r="L19">
+        <v>0.084179900000000002</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="16">
         <v>1.8999999999999999</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B20" s="17">
         <v>2.38963e-05</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C20" s="17">
         <v>2.47877e-05</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D20" s="17">
         <v>2.4356299999999999e-05</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>897465</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>0.045747799999999998</v>
       </c>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="16">
+      <c r="H20" s="17">
+        <v>5.8079900000000003e-06</v>
+      </c>
+      <c r="I20" s="17">
+        <v>5.4419299999999999e-06</v>
+      </c>
+      <c r="J20" s="17">
+        <v>5.6249400000000004e-06</v>
+      </c>
+      <c r="K20" s="17">
+        <v>2185430</v>
+      </c>
+      <c r="L20">
+        <v>0.081347699999999995</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="16">
         <v>2</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B21" s="17">
         <v>2.4125600000000002e-05</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C21" s="17">
         <v>2.4986300000000002e-05</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D21" s="17">
         <v>2.45701e-05</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>929444</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>0.043789500000000002</v>
       </c>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="16">
+      <c r="H21" s="17">
+        <v>5.83167e-06</v>
+      </c>
+      <c r="I21" s="17">
+        <v>5.4754000000000001e-06</v>
+      </c>
+      <c r="J21" s="17">
+        <v>5.6535799999999998e-06</v>
+      </c>
+      <c r="K21" s="17">
+        <v>2245520</v>
+      </c>
+      <c r="L21">
+        <v>0.078769699999999998</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="16">
         <v>2.0999999999999996</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B22" s="17">
         <v>2.43336e-05</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C22" s="17">
         <v>2.5165100000000001e-05</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D22" s="17">
         <v>2.47632e-05</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>962074</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>0.041974299999999999</v>
       </c>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="16">
+      <c r="H22" s="17">
+        <v>5.85298e-06</v>
+      </c>
+      <c r="I22" s="17">
+        <v>5.50579e-06</v>
+      </c>
+      <c r="J22" s="17">
+        <v>5.6794999999999996e-06</v>
+      </c>
+      <c r="K22" s="17">
+        <v>2304250</v>
+      </c>
+      <c r="L22">
+        <v>0.076411900000000005</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B23" s="17">
         <v>2.4522999999999999e-05</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C23" s="17">
         <v>2.5326799999999999e-05</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D23" s="17">
         <v>2.4938599999999999e-05</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>995297</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>0.040287999999999997</v>
       </c>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="16">
+      <c r="H23" s="17">
+        <v>5.8722299999999998e-06</v>
+      </c>
+      <c r="I23" s="17">
+        <v>5.5334899999999998e-06</v>
+      </c>
+      <c r="J23" s="17">
+        <v>5.7030399999999997e-06</v>
+      </c>
+      <c r="K23" s="17">
+        <v>2361690</v>
+      </c>
+      <c r="L23">
+        <v>0.074245699999999998</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B24" s="17">
         <v>2.4696299999999999e-05</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C24" s="17">
         <v>2.54737e-05</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D24" s="17">
         <v>2.50985e-05</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E24" s="17">
         <v>1029060</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>0.0387179</v>
       </c>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="16">
+      <c r="H24" s="17">
+        <v>5.8896899999999998e-06</v>
+      </c>
+      <c r="I24" s="17">
+        <v>5.5588199999999997e-06</v>
+      </c>
+      <c r="J24" s="17">
+        <v>5.7245e-06</v>
+      </c>
+      <c r="K24" s="17">
+        <v>2417910</v>
+      </c>
+      <c r="L24">
+        <v>0.0722473</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="16">
         <v>2.3999999999999999</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B25" s="17">
         <v>2.4855499999999999e-05</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C25" s="17">
         <v>2.5607899999999999e-05</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D25" s="17">
         <v>2.5245e-05</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E25" s="17">
         <v>1063300</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>0.037253799999999997</v>
       </c>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="16">
+      <c r="H25" s="17">
+        <v>5.9055700000000003e-06</v>
+      </c>
+      <c r="I25" s="17">
+        <v>5.5820799999999998e-06</v>
+      </c>
+      <c r="J25" s="17">
+        <v>5.7441200000000003e-06</v>
+      </c>
+      <c r="K25" s="17">
+        <v>2472990</v>
+      </c>
+      <c r="L25">
+        <v>0.070396799999999995</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="16">
         <v>2.5</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B26" s="17">
         <v>2.5002099999999999e-05</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C26" s="17">
         <v>2.5730700000000001e-05</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D26" s="17">
         <v>2.53795e-05</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E26" s="17">
         <v>1097970</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>0.035886000000000001</v>
       </c>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="16">
+      <c r="H26" s="17">
+        <v>5.9200799999999997e-06</v>
+      </c>
+      <c r="I26" s="17">
+        <v>5.6034899999999999e-06</v>
+      </c>
+      <c r="J26" s="17">
+        <v>5.7621299999999998e-06</v>
+      </c>
+      <c r="K26" s="17">
+        <v>2526980</v>
+      </c>
+      <c r="L26">
+        <v>0.0686774</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="16">
         <v>2.6000000000000001</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B27" s="17">
         <v>2.5137700000000002e-05</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C27" s="17">
         <v>2.5843800000000001e-05</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D27" s="17">
         <v>2.5503700000000001e-05</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E27" s="17">
         <v>1133030</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>0.034606400000000002</v>
       </c>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="16">
+      <c r="H27" s="17">
+        <v>5.9333499999999997e-06</v>
+      </c>
+      <c r="I27" s="17">
+        <v>5.6232699999999996e-06</v>
+      </c>
+      <c r="J27" s="17">
+        <v>5.7787100000000001e-06</v>
+      </c>
+      <c r="K27" s="17">
+        <v>2579950</v>
+      </c>
+      <c r="L27">
+        <v>0.067074700000000001</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="16">
         <v>2.7000000000000002</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B28" s="17">
         <v>2.52635e-05</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C28" s="17">
         <v>2.59481e-05</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D28" s="17">
         <v>2.5618599999999999e-05</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E28" s="17">
         <v>1168430</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>0.0334075</v>
       </c>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="16">
+      <c r="H28" s="17">
+        <v>5.9455500000000002e-06</v>
+      </c>
+      <c r="I28" s="17">
+        <v>5.6415899999999996e-06</v>
+      </c>
+      <c r="J28" s="17">
+        <v>5.7940099999999998e-06</v>
+      </c>
+      <c r="K28" s="17">
+        <v>2631930</v>
+      </c>
+      <c r="L28">
+        <v>0.065576200000000001</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="16">
         <v>2.7999999999999998</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B29" s="17">
         <v>2.5380399999999998e-05</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C29" s="17">
         <v>2.6044799999999998e-05</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D29" s="17">
         <v>2.5725199999999999e-05</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E29" s="17">
         <v>1204110</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>0.032283199999999998</v>
       </c>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="16">
+      <c r="H29" s="17">
+        <v>5.9567699999999999e-06</v>
+      </c>
+      <c r="I29" s="17">
+        <v>5.6586000000000003e-06</v>
+      </c>
+      <c r="J29" s="17">
+        <v>5.8081700000000002e-06</v>
+      </c>
+      <c r="K29" s="17">
+        <v>2683000</v>
+      </c>
+      <c r="L29">
+        <v>0.064171199999999998</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="16">
         <v>2.9000000000000004</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B30" s="17">
         <v>2.54894e-05</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C30" s="17">
         <v>2.6134599999999999e-05</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D30" s="17">
         <v>2.58245e-05</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E30" s="17">
         <v>1240040</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>0.0312273</v>
       </c>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="16">
+      <c r="H30" s="17">
+        <v>5.9671300000000004e-06</v>
+      </c>
+      <c r="I30" s="17">
+        <v>5.6744299999999998e-06</v>
+      </c>
+      <c r="J30" s="17">
+        <v>5.8212999999999996e-06</v>
+      </c>
+      <c r="K30" s="17">
+        <v>2733190</v>
+      </c>
+      <c r="L30">
+        <v>0.062850699999999995</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="16">
         <v>3</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B31" s="17">
         <v>2.55914e-05</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C31" s="17">
         <v>2.6218199999999999e-05</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D31" s="17">
         <v>2.59171e-05</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E31" s="17">
         <v>1276170</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>0.0302347</v>
       </c>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="16">
+      <c r="H31" s="17">
+        <v>5.9767099999999997e-06</v>
+      </c>
+      <c r="I31" s="17">
+        <v>5.6891999999999997e-06</v>
+      </c>
+      <c r="J31" s="17">
+        <v>5.8335199999999998e-06</v>
+      </c>
+      <c r="K31" s="17">
+        <v>2782550</v>
+      </c>
+      <c r="L31">
+        <v>0.061606599999999997</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="16">
         <v>3.1000000000000001</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B32" s="17">
         <v>2.56869e-05</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C32" s="17">
         <v>2.6296400000000001e-05</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D32" s="17">
         <v>2.60038e-05</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E32" s="17">
         <v>1312460</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>0.0293006</v>
       </c>
-      <c r="H31" s="17"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="16">
+      <c r="H32" s="17">
+        <v>5.9855900000000001e-06</v>
+      </c>
+      <c r="I32" s="17">
+        <v>5.70302e-06</v>
+      </c>
+      <c r="J32" s="17">
+        <v>5.8448999999999997e-06</v>
+      </c>
+      <c r="K32" s="17">
+        <v>2831120</v>
+      </c>
+      <c r="L32">
+        <v>0.060431600000000002</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="16">
         <v>3.1999999999999997</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B33" s="17">
         <v>2.57765e-05</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C33" s="17">
         <v>2.6369599999999999e-05</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D33" s="17">
         <v>2.6085099999999999e-05</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E33" s="17">
         <v>1348880</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>0.0284207</v>
       </c>
-      <c r="H32" s="17"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="16">
+      <c r="H33" s="17">
+        <v>5.9938400000000004e-06</v>
+      </c>
+      <c r="I33" s="17">
+        <v>5.7159599999999997e-06</v>
+      </c>
+      <c r="J33" s="17">
+        <v>5.8555299999999997e-06</v>
+      </c>
+      <c r="K33" s="17">
+        <v>2878960</v>
+      </c>
+      <c r="L33">
+        <v>0.059319700000000003</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="16">
         <v>3.3000000000000003</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B34" s="17">
         <v>2.5860899999999998e-05</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C34" s="17">
         <v>2.6438400000000001e-05</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D34" s="17">
         <v>2.61616e-05</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E34" s="17">
         <v>1385380</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>0.0275911</v>
       </c>
-      <c r="H33" s="17"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="16">
+      <c r="H34" s="17">
+        <v>6.0015099999999999e-06</v>
+      </c>
+      <c r="I34" s="17">
+        <v>5.7281100000000001e-06</v>
+      </c>
+      <c r="J34" s="17">
+        <v>5.8654699999999996e-06</v>
+      </c>
+      <c r="K34" s="17">
+        <v>2926080</v>
+      </c>
+      <c r="L34">
+        <v>0.058265499999999998</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="16">
         <v>3.3999999999999999</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B35" s="17">
         <v>2.59405e-05</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C35" s="17">
         <v>2.65031e-05</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D35" s="17">
         <v>2.6233599999999999e-05</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E35" s="17">
         <v>1421920</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>0.026808200000000001</v>
       </c>
-      <c r="H34" s="17"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="16">
+      <c r="H35" s="17">
+        <v>6.0086600000000003e-06</v>
+      </c>
+      <c r="I35" s="17">
+        <v>5.7395300000000003e-06</v>
+      </c>
+      <c r="J35" s="17">
+        <v>5.8747800000000004e-06</v>
+      </c>
+      <c r="K35" s="17">
+        <v>2972530</v>
+      </c>
+      <c r="L35">
+        <v>0.057264000000000002</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="16">
         <v>3.5</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B36" s="17">
         <v>2.6015599999999999e-05</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C36" s="17">
         <v>2.6564099999999999e-05</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D36" s="17">
         <v>2.6301499999999999e-05</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E36" s="17">
         <v>1458480</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>0.0260687</v>
       </c>
-      <c r="H35" s="17"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="16">
+      <c r="H36" s="17">
+        <v>6.0153300000000002e-06</v>
+      </c>
+      <c r="I36" s="17">
+        <v>5.75029e-06</v>
+      </c>
+      <c r="J36" s="17">
+        <v>5.8835300000000001e-06</v>
+      </c>
+      <c r="K36" s="17">
+        <v>3018350</v>
+      </c>
+      <c r="L36">
+        <v>0.056311</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="16">
         <v>3.5999999999999996</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B37" s="17">
         <v>2.6086699999999999e-05</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C37" s="17">
         <v>2.66218e-05</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D37" s="17">
         <v>2.6365800000000001e-05</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E37" s="17">
         <v>1495010</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>0.025369699999999999</v>
       </c>
-      <c r="H36" s="17"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="16">
+      <c r="H37" s="17">
+        <v>6.0215699999999997e-06</v>
+      </c>
+      <c r="I37" s="17">
+        <v>5.7604400000000002e-06</v>
+      </c>
+      <c r="J37" s="17">
+        <v>5.89175e-06</v>
+      </c>
+      <c r="K37" s="17">
+        <v>3063550</v>
+      </c>
+      <c r="L37">
+        <v>0.055402600000000003</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="16">
         <v>3.7000000000000002</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B38" s="17">
         <v>2.6154000000000001e-05</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C38" s="17">
         <v>2.6676400000000001e-05</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D38" s="17">
         <v>2.6426699999999999e-05</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E38" s="17">
         <v>1531490</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>0.024708399999999998</v>
       </c>
-      <c r="H37" s="17"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="16">
+      <c r="H38" s="17">
+        <v>6.0274099999999999e-06</v>
+      </c>
+      <c r="I38" s="17">
+        <v>5.7700300000000002e-06</v>
+      </c>
+      <c r="J38" s="17">
+        <v>5.8994900000000002e-06</v>
+      </c>
+      <c r="K38" s="17">
+        <v>3108190</v>
+      </c>
+      <c r="L38">
+        <v>0.054535399999999998</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="16">
         <v>3.7999999999999998</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B39" s="17">
         <v>2.6217899999999998e-05</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C39" s="17">
         <v>2.6728199999999999e-05</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D39" s="17">
         <v>2.64844e-05</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E39" s="17">
         <v>1567880</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>0.024082300000000001</v>
       </c>
-      <c r="H38" s="17"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="16">
+      <c r="H39" s="17">
+        <v>6.0328899999999996e-06</v>
+      </c>
+      <c r="I39" s="17">
+        <v>5.7791000000000003e-06</v>
+      </c>
+      <c r="J39" s="17">
+        <v>5.9067900000000001e-06</v>
+      </c>
+      <c r="K39" s="17">
+        <v>3152280</v>
+      </c>
+      <c r="L39">
+        <v>0.0537061</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="16">
         <v>3.8999999999999999</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B40" s="17">
         <v>2.62787e-05</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C40" s="17">
         <v>2.6777399999999999e-05</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D40" s="17">
         <v>2.6539299999999998e-05</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E40" s="17">
         <v>1604150</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>0.023488999999999999</v>
       </c>
-      <c r="H39" s="17"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="16">
+      <c r="H40" s="17">
+        <v>6.0380200000000002e-06</v>
+      </c>
+      <c r="I40" s="17">
+        <v>5.7876999999999997e-06</v>
+      </c>
+      <c r="J40" s="17">
+        <v>5.9136800000000001e-06</v>
+      </c>
+      <c r="K40" s="17">
+        <v>3195850</v>
+      </c>
+      <c r="L40">
+        <v>0.0529122</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="16">
         <v>4</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B41" s="17">
         <v>2.6336500000000001e-05</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C41" s="17">
         <v>2.68242e-05</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D41" s="17">
         <v>2.6591500000000001e-05</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E41" s="17">
         <v>1640290</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>0.0229264</v>
       </c>
-      <c r="H40" s="17"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="16">
+      <c r="H41" s="17">
+        <v>6.0428500000000001e-06</v>
+      </c>
+      <c r="I41" s="17">
+        <v>5.7958499999999997e-06</v>
+      </c>
+      <c r="J41" s="17">
+        <v>5.9201899999999998e-06</v>
+      </c>
+      <c r="K41" s="17">
+        <v>3238940</v>
+      </c>
+      <c r="L41">
+        <v>0.0521509</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="16">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B42" s="17">
         <v>2.63916e-05</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C42" s="17">
         <v>2.6868799999999999e-05</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D42" s="17">
         <v>2.6641299999999999e-05</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E42" s="17">
         <v>1676260</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <v>0.022392499999999999</v>
       </c>
-      <c r="H41" s="17"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="16">
+      <c r="H42" s="17">
+        <v>6.0473800000000002e-06</v>
+      </c>
+      <c r="I42" s="17">
+        <v>5.8035999999999998e-06</v>
+      </c>
+      <c r="J42" s="17">
+        <v>5.9263499999999996e-06</v>
+      </c>
+      <c r="K42" s="17">
+        <v>3281550</v>
+      </c>
+      <c r="L42">
+        <v>0.051420199999999999</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="16">
         <v>4.1999999999999993</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B43" s="17">
         <v>2.64441e-05</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C43" s="17">
         <v>2.6911400000000001e-05</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D43" s="17">
         <v>2.6688800000000001e-05</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E43" s="17">
         <v>1712040</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <v>0.021885499999999999</v>
       </c>
-      <c r="H42" s="17"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="16">
+      <c r="H43" s="17">
+        <v>6.0516499999999999e-06</v>
+      </c>
+      <c r="I43" s="17">
+        <v>5.8109599999999997e-06</v>
+      </c>
+      <c r="J43" s="17">
+        <v>5.9321899999999999e-06</v>
+      </c>
+      <c r="K43" s="17">
+        <v>3323710</v>
+      </c>
+      <c r="L43">
+        <v>0.050717900000000003</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" s="16">
         <v>4.3000000000000007</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B44" s="17">
         <v>2.6494300000000001e-05</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C44" s="17">
         <v>2.6952099999999999e-05</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D44" s="17">
         <v>2.6734099999999999e-05</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E44" s="17">
         <v>1747610</v>
       </c>
-      <c r="F43">
+      <c r="F44">
         <v>0.021403700000000001</v>
       </c>
-      <c r="H43" s="17"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="16">
+      <c r="H44" s="17">
+        <v>6.0556799999999998e-06</v>
+      </c>
+      <c r="I44" s="17">
+        <v>5.8179699999999996e-06</v>
+      </c>
+      <c r="J44" s="17">
+        <v>5.9377199999999996e-06</v>
+      </c>
+      <c r="K44" s="17">
+        <v>3365460</v>
+      </c>
+      <c r="L44">
+        <v>0.050042099999999999</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="16">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B45" s="17">
         <v>2.6542300000000002e-05</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C45" s="17">
         <v>2.6991e-05</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D45" s="17">
         <v>2.6777599999999999e-05</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E45" s="17">
         <v>1782940</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>0.020945600000000002</v>
       </c>
-      <c r="H44" s="17"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="16">
+      <c r="H45" s="17">
+        <v>6.0594699999999998e-06</v>
+      </c>
+      <c r="I45" s="17">
+        <v>5.8246500000000002e-06</v>
+      </c>
+      <c r="J45" s="17">
+        <v>5.94298e-06</v>
+      </c>
+      <c r="K45" s="17">
+        <v>3406810</v>
+      </c>
+      <c r="L45">
+        <v>0.049390999999999997</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="16">
         <v>4.5</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B46" s="17">
         <v>2.6588300000000001e-05</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C46" s="17">
         <v>2.70283e-05</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D46" s="17">
         <v>2.6819099999999999e-05</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E46" s="17">
         <v>1818030</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <v>0.0205095</v>
       </c>
-      <c r="H45" s="17"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="16">
+      <c r="H46" s="17">
+        <v>6.0630500000000003e-06</v>
+      </c>
+      <c r="I46" s="17">
+        <v>5.8310200000000003e-06</v>
+      </c>
+      <c r="J46" s="17">
+        <v>5.9479700000000001e-06</v>
+      </c>
+      <c r="K46" s="17">
+        <v>3447770</v>
+      </c>
+      <c r="L46">
+        <v>0.048763300000000002</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="16">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B47" s="17">
         <v>2.6632399999999999e-05</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C47" s="17">
         <v>2.7064100000000001e-05</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D47" s="17">
         <v>2.6859000000000002e-05</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E47" s="17">
         <v>1852840</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>0.020094299999999999</v>
       </c>
-      <c r="H46" s="17"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="16">
+      <c r="H47" s="17">
+        <v>6.0664299999999996e-06</v>
+      </c>
+      <c r="I47" s="17">
+        <v>5.8371000000000004e-06</v>
+      </c>
+      <c r="J47" s="17">
+        <v>5.9527200000000003e-06</v>
+      </c>
+      <c r="K47" s="17">
+        <v>3488370</v>
+      </c>
+      <c r="L47">
+        <v>0.0481573</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="16">
         <v>4.7000000000000002</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B48" s="17">
         <v>2.66746e-05</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C48" s="17">
         <v>2.7098500000000002e-05</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D48" s="17">
         <v>2.6897200000000001e-05</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E48" s="17">
         <v>1887360</v>
       </c>
-      <c r="F47">
+      <c r="F48">
         <v>0.0196987</v>
       </c>
-      <c r="H47" s="17"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="16">
+      <c r="H48" s="17">
+        <v>6.0696299999999999e-06</v>
+      </c>
+      <c r="I48" s="17">
+        <v>5.8429100000000003e-06</v>
+      </c>
+      <c r="J48" s="17">
+        <v>5.9572399999999997e-06</v>
+      </c>
+      <c r="K48" s="17">
+        <v>3528610</v>
+      </c>
+      <c r="L48">
+        <v>0.0475719</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" s="16">
         <v>4.7999999999999998</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B49" s="17">
         <v>2.6715200000000001e-05</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C49" s="17">
         <v>2.7131499999999999e-05</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D49" s="17">
         <v>2.69339e-05</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E49" s="17">
         <v>1921600</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>0.0193213</v>
       </c>
-      <c r="H48" s="17"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="16">
+      <c r="H49" s="17">
+        <v>6.0726500000000002e-06</v>
+      </c>
+      <c r="I49" s="17">
+        <v>5.8484699999999996e-06</v>
+      </c>
+      <c r="J49" s="17">
+        <v>5.9615499999999997e-06</v>
+      </c>
+      <c r="K49" s="17">
+        <v>3568550</v>
+      </c>
+      <c r="L49">
+        <v>0.047005600000000002</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" s="16">
         <v>4.8999999999999995</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B50" s="17">
         <v>2.6754099999999999e-05</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C50" s="17">
         <v>2.7163200000000001e-05</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D50" s="17">
         <v>2.6969199999999999e-05</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E50" s="17">
         <v>1955530</v>
       </c>
-      <c r="F49">
+      <c r="F50">
         <v>0.0189613</v>
       </c>
-      <c r="H49" s="17"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="16">
+      <c r="H50" s="17">
+        <v>6.0755100000000004e-06</v>
+      </c>
+      <c r="I50" s="17">
+        <v>5.8537899999999999e-06</v>
+      </c>
+      <c r="J50" s="17">
+        <v>5.9656500000000002e-06</v>
+      </c>
+      <c r="K50" s="17">
+        <v>3608150</v>
+      </c>
+      <c r="L50">
+        <v>0.046457699999999998</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="16">
         <v>5</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B51" s="17">
         <v>2.6791599999999999e-05</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C51" s="17">
         <v>2.71938e-05</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D51" s="17">
         <v>2.7003199999999999e-05</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E51" s="17">
         <v>1989130</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <v>0.018617499999999999</v>
       </c>
-      <c r="H50" s="17"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="16">
+      <c r="H51" s="17">
+        <v>6.0782200000000002e-06</v>
+      </c>
+      <c r="I51" s="17">
+        <v>5.8588900000000001e-06</v>
+      </c>
+      <c r="J51" s="17">
+        <v>5.96957e-06</v>
+      </c>
+      <c r="K51" s="17">
+        <v>3647460</v>
+      </c>
+      <c r="L51">
+        <v>0.045926799999999997</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="16">
         <v>5.1000000000000005</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B52" s="17">
         <v>2.6827700000000001e-05</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C52" s="17">
         <v>2.7223300000000001e-05</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D52" s="17">
         <v>2.70359e-05</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E52" s="17">
         <v>2022390</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>0.018289199999999999</v>
       </c>
-      <c r="H51" s="17"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="16">
+      <c r="H52" s="17">
+        <v>6.0807799999999997e-06</v>
+      </c>
+      <c r="I52" s="17">
+        <v>5.8637700000000001e-06</v>
+      </c>
+      <c r="J52" s="17">
+        <v>5.9733099999999999e-06</v>
+      </c>
+      <c r="K52" s="17">
+        <v>3686500</v>
+      </c>
+      <c r="L52">
+        <v>0.045412099999999997</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="16">
         <v>5.2000000000000002</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B53" s="17">
         <v>2.6862499999999999e-05</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C53" s="17">
         <v>2.7251699999999999e-05</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D53" s="17">
         <v>2.7067400000000001e-05</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E53" s="17">
         <v>2055330</v>
       </c>
-      <c r="F52">
+      <c r="F53">
         <v>0.017975100000000001</v>
       </c>
-      <c r="H52" s="17"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="16">
+      <c r="H53" s="17">
+        <v>6.0832100000000003e-06</v>
+      </c>
+      <c r="I53" s="17">
+        <v>5.8684600000000004e-06</v>
+      </c>
+      <c r="J53" s="17">
+        <v>5.9768799999999998e-06</v>
+      </c>
+      <c r="K53" s="17">
+        <v>3725260</v>
+      </c>
+      <c r="L53">
+        <v>0.0449127</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="16">
         <v>5.2999999999999998</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B54" s="17">
         <v>2.6896000000000001e-05</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C54" s="17">
         <v>2.7279100000000001e-05</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D54" s="17">
         <v>2.70979e-05</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E54" s="17">
         <v>2087910</v>
       </c>
-      <c r="F53">
+      <c r="F54">
         <v>0.017674700000000002</v>
       </c>
-      <c r="H53" s="17"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="16">
+      <c r="H54" s="17">
+        <v>6.0855200000000001e-06</v>
+      </c>
+      <c r="I54" s="17">
+        <v>5.8729600000000001e-06</v>
+      </c>
+      <c r="J54" s="17">
+        <v>5.9803000000000002e-06</v>
+      </c>
+      <c r="K54" s="17">
+        <v>3763770</v>
+      </c>
+      <c r="L54">
+        <v>0.044427800000000003</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" s="16">
         <v>5.4000000000000004</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B55" s="17">
         <v>2.6928300000000001e-05</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C55" s="17">
         <v>2.7305600000000002e-05</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D55" s="17">
         <v>2.71272e-05</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E55" s="17">
         <v>2120140</v>
       </c>
-      <c r="F54">
+      <c r="F55">
         <v>0.017387199999999998</v>
       </c>
-      <c r="H54" s="17"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="16">
+      <c r="H55" s="17">
+        <v>6.0877000000000002e-06</v>
+      </c>
+      <c r="I55" s="17">
+        <v>5.8772899999999998e-06</v>
+      </c>
+      <c r="J55" s="17">
+        <v>5.9835600000000004e-06</v>
+      </c>
+      <c r="K55" s="17">
+        <v>3802020</v>
+      </c>
+      <c r="L55">
+        <v>0.043956700000000001</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="16">
         <v>5.5</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B56" s="17">
         <v>2.6959500000000002e-05</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C56" s="17">
         <v>2.73313e-05</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D56" s="17">
         <v>2.7155600000000001e-05</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E56" s="17">
         <v>2152020</v>
       </c>
-      <c r="F55">
+      <c r="F56">
         <v>0.017111700000000001</v>
       </c>
-      <c r="H55" s="17"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="16">
+      <c r="H56" s="17">
+        <v>6.0897700000000001e-06</v>
+      </c>
+      <c r="I56" s="17">
+        <v>5.8814400000000004e-06</v>
+      </c>
+      <c r="J56" s="17">
+        <v>5.9866899999999999e-06</v>
+      </c>
+      <c r="K56" s="17">
+        <v>3840050</v>
+      </c>
+      <c r="L56">
+        <v>0.043498700000000001</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" s="16">
         <v>5.5999999999999996</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B57" s="17">
         <v>2.69897e-05</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C57" s="17">
         <v>2.7356e-05</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D57" s="17">
         <v>2.7183e-05</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E57" s="17">
         <v>2183530</v>
       </c>
-      <c r="F56">
+      <c r="F57">
         <v>0.0168478</v>
       </c>
-      <c r="H56" s="17"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="16">
+      <c r="H57" s="17">
+        <v>6.0917399999999999e-06</v>
+      </c>
+      <c r="I57" s="17">
+        <v>5.8854399999999998e-06</v>
+      </c>
+      <c r="J57" s="17">
+        <v>5.9896799999999999e-06</v>
+      </c>
+      <c r="K57" s="17">
+        <v>3877860</v>
+      </c>
+      <c r="L57">
+        <v>0.043053000000000001</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" s="16">
         <v>5.6999999999999993</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B58" s="17">
         <v>2.70188e-05</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C58" s="17">
         <v>2.7379999999999999e-05</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D58" s="17">
         <v>2.7209500000000001e-05</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E58" s="17">
         <v>2214690</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <v>0.016594600000000001</v>
       </c>
-      <c r="H57" s="17"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="16">
+      <c r="H58" s="17">
+        <v>6.0936100000000003e-06</v>
+      </c>
+      <c r="I58" s="17">
+        <v>5.8892899999999998e-06</v>
+      </c>
+      <c r="J58" s="17">
+        <v>5.9925499999999999e-06</v>
+      </c>
+      <c r="K58" s="17">
+        <v>3915470</v>
+      </c>
+      <c r="L58">
+        <v>0.042618999999999997</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" s="16">
         <v>5.8000000000000007</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B59" s="17">
         <v>2.7047e-05</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C59" s="17">
         <v>2.7403199999999999e-05</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D59" s="17">
         <v>2.72352e-05</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E59" s="17">
         <v>2245460</v>
       </c>
-      <c r="F58">
+      <c r="F59">
         <v>0.0163518</v>
       </c>
-      <c r="H58" s="17"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="16">
+      <c r="H59" s="17">
+        <v>6.0953800000000004e-06</v>
+      </c>
+      <c r="I59" s="17">
+        <v>5.8929900000000003e-06</v>
+      </c>
+      <c r="J59" s="17">
+        <v>5.9953e-06</v>
+      </c>
+      <c r="K59" s="17">
+        <v>3952870</v>
+      </c>
+      <c r="L59">
+        <v>0.042196400000000002</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="16">
         <v>5.9000000000000004</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B60" s="17">
         <v>2.7074199999999999e-05</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C60" s="17">
         <v>2.7425800000000001e-05</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D60" s="17">
         <v>2.726e-05</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E60" s="17">
         <v>2275880</v>
       </c>
-      <c r="F59">
+      <c r="F60">
         <v>0.016118500000000001</v>
       </c>
-      <c r="H59" s="17"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="16">
+      <c r="H60" s="17">
+        <v>6.0970600000000002e-06</v>
+      </c>
+      <c r="I60" s="17">
+        <v>5.89657e-06</v>
+      </c>
+      <c r="J60" s="17">
+        <v>5.99794e-06</v>
+      </c>
+      <c r="K60" s="17">
+        <v>3990090</v>
+      </c>
+      <c r="L60">
+        <v>0.041784500000000002</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="16">
         <v>6</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B61" s="17">
         <v>2.7100599999999999e-05</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C61" s="17">
         <v>2.7447600000000001e-05</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D61" s="17">
         <v>2.7284099999999999e-05</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E61" s="17">
         <v>2305930</v>
       </c>
-      <c r="F60">
+      <c r="F61">
         <v>0.0158944</v>
       </c>
-      <c r="H60" s="17"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="16">
+      <c r="H61" s="17">
+        <v>6.0986600000000003e-06</v>
+      </c>
+      <c r="I61" s="17">
+        <v>5.9000100000000001e-06</v>
+      </c>
+      <c r="J61" s="17">
+        <v>6.00047e-06</v>
+      </c>
+      <c r="K61" s="17">
+        <v>4027140</v>
+      </c>
+      <c r="L61">
+        <v>0.041382599999999999</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" s="16">
         <v>6.0999999999999899</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B62" s="17">
         <v>2.7126200000000001e-05</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C62" s="17">
         <v>2.74687e-05</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D62" s="17">
         <v>2.7307399999999999e-05</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E62" s="17">
         <v>2335600</v>
       </c>
-      <c r="F61">
+      <c r="F62">
         <v>0.015679100000000001</v>
       </c>
-      <c r="H61" s="17"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="16">
+      <c r="H62" s="17">
+        <v>6.1001799999999999e-06</v>
+      </c>
+      <c r="I62" s="17">
+        <v>5.9033300000000003e-06</v>
+      </c>
+      <c r="J62" s="17">
+        <v>6.0029099999999996e-06</v>
+      </c>
+      <c r="K62" s="17">
+        <v>4064000</v>
+      </c>
+      <c r="L62">
+        <v>0.040990699999999998</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63" s="16">
         <v>6.1999999999999895</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B63" s="17">
         <v>2.7151000000000001e-05</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C63" s="17">
         <v>2.7489300000000001e-05</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D63" s="17">
         <v>2.7330100000000001e-05</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E63" s="17">
         <v>2364920</v>
       </c>
-      <c r="F62">
+      <c r="F63">
         <v>0.0154719</v>
       </c>
-      <c r="H62" s="17"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="16">
+      <c r="H63" s="17">
+        <v>6.1016199999999999e-06</v>
+      </c>
+      <c r="I63" s="17">
+        <v>5.9065400000000004e-06</v>
+      </c>
+      <c r="J63" s="17">
+        <v>6.00524e-06</v>
+      </c>
+      <c r="K63" s="17">
+        <v>4100700</v>
+      </c>
+      <c r="L63">
+        <v>0.040607999999999998</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" s="16">
         <v>6.2999999999999901</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B64" s="17">
         <v>2.71751e-05</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C64" s="17">
         <v>2.7509200000000001e-05</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D64" s="17">
         <v>2.7351999999999998e-05</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E64" s="17">
         <v>2393860</v>
       </c>
-      <c r="F63">
+      <c r="F64">
         <v>0.015272600000000001</v>
       </c>
-      <c r="H63" s="17"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="16">
+      <c r="H64" s="17">
+        <v>6.1029999999999998e-06</v>
+      </c>
+      <c r="I64" s="17">
+        <v>5.9096299999999997e-06</v>
+      </c>
+      <c r="J64" s="17">
+        <v>6.00748e-06</v>
+      </c>
+      <c r="K64" s="17">
+        <v>4137270</v>
+      </c>
+      <c r="L64">
+        <v>0.040233999999999999</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="16">
         <v>6.3999999999999906</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B65" s="17">
         <v>2.71984e-05</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C65" s="17">
         <v>2.7528599999999999e-05</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D65" s="17">
         <v>2.7373300000000001e-05</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E65" s="17">
         <v>2422450</v>
       </c>
-      <c r="F64">
+      <c r="F65">
         <v>0.0150806</v>
       </c>
-      <c r="H64" s="17"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="16">
+      <c r="H65" s="17">
+        <v>6.1043000000000002e-06</v>
+      </c>
+      <c r="I65" s="17">
+        <v>5.9126199999999996e-06</v>
+      </c>
+      <c r="J65" s="17">
+        <v>6.0096400000000003e-06</v>
+      </c>
+      <c r="K65" s="17">
+        <v>4173680</v>
+      </c>
+      <c r="L65">
+        <v>0.0398687</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="16">
         <v>6.4999999999999902</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B66" s="17">
         <v>2.7220999999999999e-05</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C66" s="17">
         <v>2.75475e-05</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D66" s="17">
         <v>2.7393999999999999e-05</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E66" s="17">
         <v>2450660</v>
       </c>
-      <c r="F65">
+      <c r="F66">
         <v>0.0148957</v>
       </c>
-      <c r="H65" s="17"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="16">
+      <c r="H66" s="17">
+        <v>6.1055399999999997e-06</v>
+      </c>
+      <c r="I66" s="17">
+        <v>5.9155100000000002e-06</v>
+      </c>
+      <c r="J66" s="17">
+        <v>6.0117100000000002e-06</v>
+      </c>
+      <c r="K66" s="17">
+        <v>4209960</v>
+      </c>
+      <c r="L66">
+        <v>0.039511600000000001</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="16">
         <v>6.5999999999999899</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B67" s="17">
         <v>2.7243e-05</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C67" s="17">
         <v>2.75658e-05</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D67" s="17">
         <v>2.7414199999999999e-05</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E67" s="17">
         <v>2478510</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <v>0.0147175</v>
       </c>
-      <c r="H66" s="17"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="16">
+      <c r="H67" s="17">
+        <v>6.1067100000000002e-06</v>
+      </c>
+      <c r="I67" s="17">
+        <v>5.9183099999999996e-06</v>
+      </c>
+      <c r="J67" s="17">
+        <v>6.0137100000000004e-06</v>
+      </c>
+      <c r="K67" s="17">
+        <v>4246110</v>
+      </c>
+      <c r="L67">
+        <v>0.039162200000000001</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" s="16">
         <v>6.6999999999999904</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B68" s="17">
         <v>2.7264399999999999e-05</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C68" s="17">
         <v>2.7583600000000001e-05</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D68" s="17">
         <v>2.7433700000000001e-05</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E68" s="17">
         <v>2506020</v>
       </c>
-      <c r="F67">
+      <c r="F68">
         <v>0.014545499999999999</v>
       </c>
-      <c r="H67" s="17"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="16">
+      <c r="H68" s="17">
+        <v>6.1078299999999998e-06</v>
+      </c>
+      <c r="I68" s="17">
+        <v>5.9210100000000004e-06</v>
+      </c>
+      <c r="J68" s="17">
+        <v>6.01563e-06</v>
+      </c>
+      <c r="K68" s="17">
+        <v>4282140</v>
+      </c>
+      <c r="L68">
+        <v>0.038820300000000002</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" s="16">
         <v>6.7999999999999901</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B69" s="17">
         <v>2.7285200000000001e-05</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C69" s="17">
         <v>2.7600999999999999e-05</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D69" s="17">
         <v>2.7452799999999999e-05</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E69" s="17">
         <v>2533170</v>
       </c>
-      <c r="F68">
+      <c r="F69">
         <v>0.0143797</v>
       </c>
-      <c r="H68" s="17"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="16">
+      <c r="H69" s="17">
+        <v>6.1088900000000002e-06</v>
+      </c>
+      <c r="I69" s="17">
+        <v>5.92362e-06</v>
+      </c>
+      <c r="J69" s="17">
+        <v>6.01747e-06</v>
+      </c>
+      <c r="K69" s="17">
+        <v>4318050</v>
+      </c>
+      <c r="L69">
+        <v>0.038485600000000002</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="16">
         <v>6.8999999999999897</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B70" s="17">
         <v>2.7305400000000001e-05</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C70" s="17">
         <v>2.7617899999999999e-05</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D70" s="17">
         <v>2.7471299999999999e-05</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E70" s="17">
         <v>2559980</v>
       </c>
-      <c r="F69">
+      <c r="F70">
         <v>0.0142195</v>
       </c>
-      <c r="H69" s="17"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="16">
+      <c r="H70" s="17">
+        <v>6.1098999999999997e-06</v>
+      </c>
+      <c r="I70" s="17">
+        <v>5.9261599999999999e-06</v>
+      </c>
+      <c r="J70" s="17">
+        <v>6.01925e-06</v>
+      </c>
+      <c r="K70" s="17">
+        <v>4353870</v>
+      </c>
+      <c r="L70">
+        <v>0.038157700000000003</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71" s="16">
         <v>6.9999999999999893</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B71" s="17">
         <v>2.7325e-05</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C71" s="17">
         <v>2.7634300000000001e-05</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D71" s="17">
         <v>2.7489300000000001e-05</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E71" s="17">
         <v>2586430</v>
       </c>
-      <c r="F70">
+      <c r="F71">
         <v>0.0140649</v>
       </c>
-      <c r="H70" s="17"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="16">
+      <c r="H71" s="17">
+        <v>6.11086e-06</v>
+      </c>
+      <c r="I71" s="17">
+        <v>5.9286100000000001e-06</v>
+      </c>
+      <c r="J71" s="17">
+        <v>6.0209600000000002e-06</v>
+      </c>
+      <c r="K71" s="17">
+        <v>4389560</v>
+      </c>
+      <c r="L71">
+        <v>0.037836599999999998</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="A72" s="16">
         <v>7.0999999999999899</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B72" s="17">
         <v>2.7344100000000001e-05</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C72" s="17">
         <v>2.7650299999999999e-05</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D72" s="17">
         <v>2.7506899999999999e-05</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E72" s="17">
         <v>2612550</v>
       </c>
-      <c r="F71">
+      <c r="F72">
         <v>0.0139154</v>
       </c>
-      <c r="H71" s="17"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="16">
+      <c r="H72" s="17">
+        <v>6.1117700000000001e-06</v>
+      </c>
+      <c r="I72" s="17">
+        <v>5.9309899999999998e-06</v>
+      </c>
+      <c r="J72" s="17">
+        <v>6.0226200000000003e-06</v>
+      </c>
+      <c r="K72" s="17">
+        <v>4425170</v>
+      </c>
+      <c r="L72">
+        <v>0.037521899999999997</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="A73" s="16">
         <v>7.1999999999999904</v>
       </c>
-      <c r="B72" s="17">
+      <c r="B73" s="17">
         <v>2.7362800000000002e-05</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C73" s="17">
         <v>2.7665999999999999e-05</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D73" s="17">
         <v>2.7523899999999999e-05</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E73" s="17">
         <v>2638330</v>
       </c>
-      <c r="F72">
+      <c r="F73">
         <v>0.0137708</v>
       </c>
-      <c r="H72" s="17"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="16">
+      <c r="H73" s="17">
+        <v>6.1126300000000001e-06</v>
+      </c>
+      <c r="I73" s="17">
+        <v>5.9332899999999997e-06</v>
+      </c>
+      <c r="J73" s="17">
+        <v>6.0242099999999997e-06</v>
+      </c>
+      <c r="K73" s="17">
+        <v>4460700</v>
+      </c>
+      <c r="L73">
+        <v>0.037213200000000002</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74" s="16">
         <v>7.2999999999999901</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B74" s="17">
         <v>2.7380900000000001e-05</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C74" s="17">
         <v>2.7681199999999998e-05</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D74" s="17">
         <v>2.7540599999999999e-05</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E74" s="17">
         <v>2663800</v>
       </c>
-      <c r="F73">
+      <c r="F74">
         <v>0.0136309</v>
       </c>
-      <c r="H73" s="17"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="16">
+      <c r="H74" s="17">
+        <v>6.1134499999999999e-06</v>
+      </c>
+      <c r="I74" s="17">
+        <v>5.9355199999999999e-06</v>
+      </c>
+      <c r="J74" s="17">
+        <v>6.02574e-06</v>
+      </c>
+      <c r="K74" s="17">
+        <v>4496130</v>
+      </c>
+      <c r="L74">
+        <v>0.036910600000000002</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="A75" s="16">
         <v>7.3999999999999897</v>
       </c>
-      <c r="B74" s="17">
+      <c r="B75" s="17">
         <v>2.7398499999999999e-05</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C75" s="17">
         <v>2.7696100000000001e-05</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D75" s="17">
         <v>2.75568e-05</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E75" s="17">
         <v>2688950</v>
       </c>
-      <c r="F74">
+      <c r="F75">
         <v>0.013495500000000001</v>
       </c>
-      <c r="H74" s="17"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="16">
+      <c r="H75" s="17">
+        <v>6.1142300000000002e-06</v>
+      </c>
+      <c r="I75" s="17">
+        <v>5.9376900000000001e-06</v>
+      </c>
+      <c r="J75" s="17">
+        <v>6.0272200000000002e-06</v>
+      </c>
+      <c r="K75" s="17">
+        <v>4531500</v>
+      </c>
+      <c r="L75">
+        <v>0.0366135</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76" s="16">
         <v>7.4999999999999902</v>
       </c>
-      <c r="B75" s="17">
+      <c r="B76" s="17">
         <v>2.7415799999999999e-05</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C76" s="17">
         <v>2.7710599999999999e-05</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D76" s="17">
         <v>2.7572700000000001e-05</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E76" s="17">
         <v>2713750</v>
       </c>
-      <c r="F75">
+      <c r="F76">
         <v>0.0133644</v>
       </c>
-      <c r="H75" s="17"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="16">
+      <c r="H76" s="17">
+        <v>6.1149700000000003e-06</v>
+      </c>
+      <c r="I76" s="17">
+        <v>5.9397899999999996e-06</v>
+      </c>
+      <c r="J76" s="17">
+        <v>6.0286500000000003e-06</v>
+      </c>
+      <c r="K76" s="17">
+        <v>4566780</v>
+      </c>
+      <c r="L76">
+        <v>0.036322100000000003</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="A77" s="16">
         <v>7.5999999999999899</v>
       </c>
-      <c r="B76" s="17">
+      <c r="B77" s="17">
         <v>2.7432499999999999e-05</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C77" s="17">
         <v>2.7724699999999999e-05</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D77" s="17">
         <v>2.7588100000000001e-05</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E77" s="17">
         <v>2738250</v>
       </c>
-      <c r="F76">
+      <c r="F77">
         <v>0.013237499999999999</v>
       </c>
-      <c r="H76" s="17"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="16">
+      <c r="H77" s="17">
+        <v>6.1156700000000002e-06</v>
+      </c>
+      <c r="I77" s="17">
+        <v>5.94183e-06</v>
+      </c>
+      <c r="J77" s="17">
+        <v>6.0300200000000004e-06</v>
+      </c>
+      <c r="K77" s="17">
+        <v>4602010</v>
+      </c>
+      <c r="L77">
+        <v>0.0360358</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="A78" s="16">
         <v>7.6999999999999904</v>
       </c>
-      <c r="B77" s="17">
+      <c r="B78" s="17">
         <v>2.7448900000000001e-05</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C78" s="17">
         <v>2.7738499999999999e-05</v>
       </c>
-      <c r="D77" s="17">
+      <c r="D78" s="17">
         <v>2.76032e-05</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E78" s="17">
         <v>2762450</v>
       </c>
-      <c r="F77">
+      <c r="F78">
         <v>0.013114300000000001</v>
       </c>
-      <c r="H77" s="17"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="16">
+      <c r="H78" s="17">
+        <v>6.1163299999999998e-06</v>
+      </c>
+      <c r="I78" s="17">
+        <v>5.9438099999999996e-06</v>
+      </c>
+      <c r="J78" s="17">
+        <v>6.0313500000000003e-06</v>
+      </c>
+      <c r="K78" s="17">
+        <v>4637160</v>
+      </c>
+      <c r="L78">
+        <v>0.0357547</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="A79" s="16">
         <v>7.7999999999999901</v>
       </c>
-      <c r="B78" s="17">
+      <c r="B79" s="17">
         <v>2.7464899999999999e-05</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C79" s="17">
         <v>2.7752000000000001e-05</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D79" s="17">
         <v>2.7617899999999999e-05</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E79" s="17">
         <v>2786320</v>
       </c>
-      <c r="F78">
+      <c r="F79">
         <v>0.012995100000000001</v>
       </c>
-      <c r="H78" s="17"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="16">
+      <c r="H79" s="17">
+        <v>6.1169499999999999e-06</v>
+      </c>
+      <c r="I79" s="17">
+        <v>5.9457300000000001e-06</v>
+      </c>
+      <c r="J79" s="17">
+        <v>6.03263e-06</v>
+      </c>
+      <c r="K79" s="17">
+        <v>4672250</v>
+      </c>
+      <c r="L79">
+        <v>0.035478700000000002</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80" s="16">
         <v>7.9000000000000004</v>
       </c>
-      <c r="B79" s="17">
+      <c r="B80" s="17">
         <v>2.7480499999999999e-05</v>
       </c>
-      <c r="C79" s="17">
+      <c r="C80" s="17">
         <v>2.77652e-05</v>
       </c>
-      <c r="D79" s="17">
+      <c r="D80" s="17">
         <v>2.7632199999999999e-05</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E80" s="17">
         <v>2809930</v>
       </c>
-      <c r="F79">
+      <c r="F80">
         <v>0.0128792</v>
       </c>
-      <c r="H79" s="17"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="16">
+      <c r="H80" s="17">
+        <v>6.1175500000000004e-06</v>
+      </c>
+      <c r="I80" s="17">
+        <v>5.9475999999999996e-06</v>
+      </c>
+      <c r="J80" s="17">
+        <v>6.0338700000000004e-06</v>
+      </c>
+      <c r="K80" s="17">
+        <v>4707290</v>
+      </c>
+      <c r="L80">
+        <v>0.035207299999999997</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81" s="16">
         <v>8</v>
       </c>
-      <c r="B80" s="17">
+      <c r="B81" s="17">
         <v>2.7495699999999998e-05</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C81" s="17">
         <v>2.7778000000000001e-05</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D81" s="17">
         <v>2.76462e-05</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E81" s="17">
         <v>2833250</v>
       </c>
-      <c r="F80">
+      <c r="F81">
         <v>0.012766700000000001</v>
       </c>
-      <c r="H80" s="17"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="16">
+      <c r="H81" s="17">
+        <v>6.1181099999999998e-06</v>
+      </c>
+      <c r="I81" s="17">
+        <v>5.94941e-06</v>
+      </c>
+      <c r="J81" s="17">
+        <v>6.0350599999999998e-06</v>
+      </c>
+      <c r="K81" s="17">
+        <v>4742290</v>
+      </c>
+      <c r="L81">
+        <v>0.034940600000000002</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82" s="16">
         <v>8.0999999999999996</v>
       </c>
-      <c r="B81" s="17">
+      <c r="B82" s="17">
         <v>2.75105e-05</v>
       </c>
-      <c r="C81" s="17">
+      <c r="C82" s="17">
         <v>2.7790600000000001e-05</v>
       </c>
-      <c r="D81" s="17">
+      <c r="D82" s="17">
         <v>2.7659899999999999e-05</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E82" s="17">
         <v>2856250</v>
       </c>
-      <c r="F81">
+      <c r="F82">
         <v>0.012657699999999999</v>
       </c>
-      <c r="H81" s="17"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="16">
+      <c r="H82" s="17">
+        <v>6.1186399999999996e-06</v>
+      </c>
+      <c r="I82" s="17">
+        <v>5.9511800000000002e-06</v>
+      </c>
+      <c r="J82" s="17">
+        <v>6.0362199999999996e-06</v>
+      </c>
+      <c r="K82" s="17">
+        <v>4777240</v>
+      </c>
+      <c r="L82">
+        <v>0.034678300000000002</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="A83" s="16">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B82" s="17">
+      <c r="B83" s="17">
         <v>2.7525000000000002e-05</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C83" s="17">
         <v>2.7802900000000001e-05</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D83" s="17">
         <v>2.7673300000000002e-05</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E83" s="17">
         <v>2878980</v>
       </c>
-      <c r="F82">
+      <c r="F83">
         <v>0.0125516</v>
       </c>
-      <c r="H82" s="17"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="16">
+      <c r="H83" s="17">
+        <v>6.1191399999999998e-06</v>
+      </c>
+      <c r="I83" s="17">
+        <v>5.9528900000000004e-06</v>
+      </c>
+      <c r="J83" s="17">
+        <v>6.0373300000000002e-06</v>
+      </c>
+      <c r="K83" s="17">
+        <v>4812160</v>
+      </c>
+      <c r="L83">
+        <v>0.034420399999999997</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="A84" s="16">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B83" s="17">
+      <c r="B84" s="17">
         <v>2.7539199999999999e-05</v>
       </c>
-      <c r="C83" s="17">
+      <c r="C84" s="17">
         <v>2.78149e-05</v>
       </c>
-      <c r="D83" s="17">
+      <c r="D84" s="17">
         <v>2.76864e-05</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E84" s="17">
         <v>2901450</v>
       </c>
-      <c r="F83">
+      <c r="F84">
         <v>0.012448600000000001</v>
       </c>
-      <c r="H83" s="17"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="16">
+      <c r="H84" s="17">
+        <v>6.1196099999999997e-06</v>
+      </c>
+      <c r="I84" s="17">
+        <v>5.9545600000000003e-06</v>
+      </c>
+      <c r="J84" s="17">
+        <v>6.0384100000000003e-06</v>
+      </c>
+      <c r="K84" s="17">
+        <v>4847030</v>
+      </c>
+      <c r="L84">
+        <v>0.034166599999999998</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85" s="16">
         <v>8.3999999999999986</v>
       </c>
-      <c r="B84" s="17">
+      <c r="B85" s="17">
         <v>2.7552999999999999e-05</v>
       </c>
-      <c r="C84" s="17">
+      <c r="C85" s="17">
         <v>2.7826699999999999e-05</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D85" s="17">
         <v>2.7699200000000001e-05</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E85" s="17">
         <v>2923650</v>
       </c>
-      <c r="F84">
+      <c r="F85">
         <v>0.0123483</v>
       </c>
-      <c r="H84" s="17"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="16">
+      <c r="H85" s="17">
+        <v>6.1200599999999998e-06</v>
+      </c>
+      <c r="I85" s="17">
+        <v>5.95619e-06</v>
+      </c>
+      <c r="J85" s="17">
+        <v>6.0394500000000003e-06</v>
+      </c>
+      <c r="K85" s="17">
+        <v>4881860</v>
+      </c>
+      <c r="L85">
+        <v>0.033917000000000003</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" s="16">
         <v>8.5</v>
       </c>
-      <c r="B85" s="17">
+      <c r="B86" s="17">
         <v>2.7566600000000001e-05</v>
       </c>
-      <c r="C85" s="17">
+      <c r="C86" s="17">
         <v>2.7838200000000001e-05</v>
       </c>
-      <c r="D85" s="17">
+      <c r="D86" s="17">
         <v>2.7711700000000001e-05</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E86" s="17">
         <v>2945580</v>
       </c>
-      <c r="F85">
+      <c r="F86">
         <v>0.0122509</v>
       </c>
-      <c r="H85" s="17"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="16">
+      <c r="H86" s="17">
+        <v>6.1204800000000004e-06</v>
+      </c>
+      <c r="I86" s="17">
+        <v>5.9577700000000004e-06</v>
+      </c>
+      <c r="J86" s="17">
+        <v>6.0404499999999999e-06</v>
+      </c>
+      <c r="K86" s="17">
+        <v>4916670</v>
+      </c>
+      <c r="L86">
+        <v>0.033671300000000001</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25">
+      <c r="A87" s="16">
         <v>8.6000000000000014</v>
       </c>
-      <c r="B86" s="17">
+      <c r="B87" s="17">
         <v>2.75798e-05</v>
       </c>
-      <c r="C86" s="17">
+      <c r="C87" s="17">
         <v>2.7849400000000001e-05</v>
       </c>
-      <c r="D86" s="17">
+      <c r="D87" s="17">
         <v>2.7723900000000001e-05</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E87" s="17">
         <v>2967260</v>
       </c>
-      <c r="F86">
+      <c r="F87">
         <v>0.012156</v>
       </c>
-      <c r="H86" s="17"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="16">
+      <c r="H87" s="17">
+        <v>6.1208699999999997e-06</v>
+      </c>
+      <c r="I87" s="17">
+        <v>5.9592999999999998e-06</v>
+      </c>
+      <c r="J87" s="17">
+        <v>6.04142e-06</v>
+      </c>
+      <c r="K87" s="17">
+        <v>4951460</v>
+      </c>
+      <c r="L87">
+        <v>0.033429300000000002</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88" s="16">
         <v>8.6999999999999993</v>
       </c>
-      <c r="B87" s="17">
+      <c r="B88" s="17">
         <v>2.7592700000000001e-05</v>
       </c>
-      <c r="C87" s="17">
+      <c r="C88" s="17">
         <v>2.7860399999999998e-05</v>
       </c>
-      <c r="D87" s="17">
+      <c r="D88" s="17">
         <v>2.77358e-05</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E88" s="17">
         <v>2988660</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <v>0.0120638</v>
       </c>
-      <c r="H87" s="17"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="16">
+      <c r="H88" s="17">
+        <v>6.1212400000000002e-06</v>
+      </c>
+      <c r="I88" s="17">
+        <v>5.9607999999999997e-06</v>
+      </c>
+      <c r="J88" s="17">
+        <v>6.0423599999999997e-06</v>
+      </c>
+      <c r="K88" s="17">
+        <v>4986220</v>
+      </c>
+      <c r="L88">
+        <v>0.033191100000000001</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="A89" s="16">
         <v>8.8000000000000007</v>
       </c>
-      <c r="B88" s="17">
+      <c r="B89" s="17">
         <v>2.7605399999999998e-05</v>
       </c>
-      <c r="C88" s="17">
+      <c r="C89" s="17">
         <v>2.7871199999999998e-05</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D89" s="17">
         <v>2.7747500000000002e-05</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E89" s="17">
         <v>3009850</v>
       </c>
-      <c r="F88">
+      <c r="F89">
         <v>0.0119738</v>
       </c>
-      <c r="H88" s="17"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="16">
+      <c r="H89" s="17">
+        <v>6.1215900000000001e-06</v>
+      </c>
+      <c r="I89" s="17">
+        <v>5.9622600000000002e-06</v>
+      </c>
+      <c r="J89" s="17">
+        <v>6.0432699999999998e-06</v>
+      </c>
+      <c r="K89" s="17">
+        <v>5020960</v>
+      </c>
+      <c r="L89">
+        <v>0.0329565</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25">
+      <c r="A90" s="16">
         <v>8.9000000000000004</v>
       </c>
-      <c r="B89" s="17">
+      <c r="B90" s="17">
         <v>2.7617799999999998e-05</v>
       </c>
-      <c r="C89" s="17">
+      <c r="C90" s="17">
         <v>2.7881800000000001e-05</v>
       </c>
-      <c r="D89" s="17">
+      <c r="D90" s="17">
         <v>2.7759e-05</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E90" s="17">
         <v>3030770</v>
       </c>
-      <c r="F89">
+      <c r="F90">
         <v>0.0118862</v>
       </c>
-      <c r="H89" s="17"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="16">
+      <c r="H90" s="17">
+        <v>6.1219099999999996e-06</v>
+      </c>
+      <c r="I90" s="17">
+        <v>5.9636799999999996e-06</v>
+      </c>
+      <c r="J90" s="17">
+        <v>6.0441500000000004e-06</v>
+      </c>
+      <c r="K90" s="17">
+        <v>5055680</v>
+      </c>
+      <c r="L90">
+        <v>0.032725499999999998</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="A91" s="16">
         <v>9</v>
       </c>
-      <c r="B90" s="17">
+      <c r="B91" s="17">
         <v>2.7629900000000001e-05</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C91" s="17">
         <v>2.78921e-05</v>
       </c>
-      <c r="D90" s="17">
+      <c r="D91" s="17">
         <v>2.7770200000000001e-05</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E91" s="17">
         <v>3051470</v>
       </c>
-      <c r="F90">
+      <c r="F91">
         <v>0.0118008</v>
       </c>
-      <c r="H90" s="17"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="16">
+      <c r="H91" s="17">
+        <v>6.1222200000000001e-06</v>
+      </c>
+      <c r="I91" s="17">
+        <v>5.9650599999999996e-06</v>
+      </c>
+      <c r="J91" s="17">
+        <v>6.0449899999999999e-06</v>
+      </c>
+      <c r="K91" s="17">
+        <v>5090390</v>
+      </c>
+      <c r="L91">
+        <v>0.032497699999999997</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="A92" s="16">
         <v>9.0999999999999996</v>
       </c>
-      <c r="B91" s="17">
+      <c r="B92" s="17">
         <v>2.76418e-05</v>
       </c>
-      <c r="C91" s="17">
+      <c r="C92" s="17">
         <v>2.7902199999999999e-05</v>
       </c>
-      <c r="D91" s="17">
+      <c r="D92" s="17">
         <v>2.7781200000000001e-05</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E92" s="17">
         <v>3071950</v>
       </c>
-      <c r="F91">
+      <c r="F92">
         <v>0.0117175</v>
       </c>
-      <c r="H91" s="17"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="16">
+      <c r="H92" s="17">
+        <v>6.1225000000000002e-06</v>
+      </c>
+      <c r="I92" s="17">
+        <v>5.96641e-06</v>
+      </c>
+      <c r="J92" s="17">
+        <v>6.0458200000000003e-06</v>
+      </c>
+      <c r="K92" s="17">
+        <v>5125090</v>
+      </c>
+      <c r="L92">
+        <v>0.032273299999999998</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25">
+      <c r="A93" s="16">
         <v>9.2000000000000099</v>
       </c>
-      <c r="B92" s="17">
+      <c r="B93" s="17">
         <v>2.7653399999999999e-05</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C93" s="17">
         <v>2.79121e-05</v>
       </c>
-      <c r="D92" s="17">
+      <c r="D93" s="17">
         <v>2.7792000000000001e-05</v>
       </c>
-      <c r="E92" s="17">
+      <c r="E93" s="17">
         <v>3092190</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <v>0.0116363</v>
       </c>
-      <c r="H92" s="17"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="16">
+      <c r="H93" s="17">
+        <v>6.1227699999999997e-06</v>
+      </c>
+      <c r="I93" s="17">
+        <v>5.9677200000000002e-06</v>
+      </c>
+      <c r="J93" s="17">
+        <v>6.0466099999999997e-06</v>
+      </c>
+      <c r="K93" s="17">
+        <v>5159790</v>
+      </c>
+      <c r="L93">
+        <v>0.0320521</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25">
+      <c r="A94" s="16">
         <v>9.3000000000000096</v>
       </c>
-      <c r="B93" s="17">
+      <c r="B94" s="17">
         <v>2.76648e-05</v>
       </c>
-      <c r="C93" s="17">
+      <c r="C94" s="17">
         <v>2.7921800000000001e-05</v>
       </c>
-      <c r="D93" s="17">
+      <c r="D94" s="17">
         <v>2.78025e-05</v>
       </c>
-      <c r="E93" s="17">
+      <c r="E94" s="17">
         <v>3112210</v>
       </c>
-      <c r="F93">
+      <c r="F94">
         <v>0.011557100000000001</v>
       </c>
-      <c r="H93" s="17"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="16">
+      <c r="H94" s="17">
+        <v>6.1230100000000004e-06</v>
+      </c>
+      <c r="I94" s="17">
+        <v>5.9689999999999999e-06</v>
+      </c>
+      <c r="J94" s="17">
+        <v>6.0473800000000002e-06</v>
+      </c>
+      <c r="K94" s="17">
+        <v>5194490</v>
+      </c>
+      <c r="L94">
+        <v>0.031833899999999998</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25">
+      <c r="A95" s="16">
         <v>9.4000000000000092</v>
       </c>
-      <c r="B94" s="17">
+      <c r="B95" s="17">
         <v>2.76759e-05</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C95" s="17">
         <v>2.7931400000000002e-05</v>
       </c>
-      <c r="D94" s="17">
+      <c r="D95" s="17">
         <v>2.7812799999999999e-05</v>
       </c>
-      <c r="E94" s="17">
+      <c r="E95" s="17">
         <v>3132020</v>
       </c>
-      <c r="F94">
+      <c r="F95">
         <v>0.011479700000000001</v>
       </c>
-      <c r="H94" s="17"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="16">
+      <c r="H95" s="17">
+        <v>6.1232400000000003e-06</v>
+      </c>
+      <c r="I95" s="17">
+        <v>5.9702500000000001e-06</v>
+      </c>
+      <c r="J95" s="17">
+        <v>6.0481200000000003e-06</v>
+      </c>
+      <c r="K95" s="17">
+        <v>5229190</v>
+      </c>
+      <c r="L95">
+        <v>0.031618800000000002</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25">
+      <c r="A96" s="16">
         <v>9.5000000000000107</v>
       </c>
-      <c r="B95" s="17">
+      <c r="B96" s="17">
         <v>2.7686900000000001e-05</v>
       </c>
-      <c r="C95" s="17">
+      <c r="C96" s="17">
         <v>2.7940700000000002e-05</v>
       </c>
-      <c r="D95" s="17">
+      <c r="D96" s="17">
         <v>2.7822900000000001e-05</v>
       </c>
-      <c r="E95" s="17">
+      <c r="E96" s="17">
         <v>3151640</v>
       </c>
-      <c r="F95">
+      <c r="F96">
         <v>0.0114041</v>
       </c>
-      <c r="H95" s="17"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="16">
+      <c r="H96" s="17">
+        <v>6.1234499999999998e-06</v>
+      </c>
+      <c r="I96" s="17">
+        <v>5.9714699999999999e-06</v>
+      </c>
+      <c r="J96" s="17">
+        <v>6.0488399999999998e-06</v>
+      </c>
+      <c r="K96" s="17">
+        <v>5263870</v>
+      </c>
+      <c r="L96">
+        <v>0.031406700000000003</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25">
+      <c r="A97" s="16">
         <v>9.6000000000000103</v>
       </c>
-      <c r="B96" s="17">
+      <c r="B97" s="17">
         <v>2.7697600000000001e-05</v>
       </c>
-      <c r="C96" s="17">
+      <c r="C97" s="17">
         <v>2.7949900000000002e-05</v>
       </c>
-      <c r="D96" s="17">
+      <c r="D97" s="17">
         <v>2.7832799999999999e-05</v>
       </c>
-      <c r="E96" s="17">
+      <c r="E97" s="17">
         <v>3171020</v>
       </c>
-      <c r="F96">
+      <c r="F97">
         <v>0.011330399999999999</v>
       </c>
-      <c r="H96" s="17"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="16">
+      <c r="H97" s="17">
+        <v>6.1236400000000004e-06</v>
+      </c>
+      <c r="I97" s="17">
+        <v>5.9726600000000002e-06</v>
+      </c>
+      <c r="J97" s="17">
+        <v>6.0495299999999998e-06</v>
+      </c>
+      <c r="K97" s="17">
+        <v>5298580</v>
+      </c>
+      <c r="L97">
+        <v>0.0311974</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25">
+      <c r="A98" s="16">
         <v>9.7000000000000099</v>
       </c>
-      <c r="B97" s="17">
+      <c r="B98" s="17">
         <v>2.77081e-05</v>
       </c>
-      <c r="C97" s="17">
+      <c r="C98" s="17">
         <v>2.7958800000000001e-05</v>
       </c>
-      <c r="D97" s="17">
+      <c r="D98" s="17">
         <v>2.78426e-05</v>
       </c>
-      <c r="E97" s="17">
+      <c r="E98" s="17">
         <v>3190230</v>
       </c>
-      <c r="F97">
+      <c r="F98">
         <v>0.011258199999999999</v>
       </c>
-      <c r="H97" s="17"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="16">
+      <c r="H98" s="17">
+        <v>6.1238200000000003e-06</v>
+      </c>
+      <c r="I98" s="17">
+        <v>5.9738100000000002e-06</v>
+      </c>
+      <c r="J98" s="17">
+        <v>6.0502000000000001e-06</v>
+      </c>
+      <c r="K98" s="17">
+        <v>5333280</v>
+      </c>
+      <c r="L98">
+        <v>0.030991000000000001</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25">
+      <c r="A99" s="16">
         <v>9.8000000000000096</v>
       </c>
-      <c r="B98" s="17">
+      <c r="B99" s="17">
         <v>2.7718299999999999e-05</v>
       </c>
-      <c r="C98" s="17">
+      <c r="C99" s="17">
         <v>2.79676e-05</v>
       </c>
-      <c r="D98" s="17">
+      <c r="D99" s="17">
         <v>2.7852100000000001e-05</v>
       </c>
-      <c r="E98" s="17">
+      <c r="E99" s="17">
         <v>3209220</v>
       </c>
-      <c r="F98">
+      <c r="F99">
         <v>0.0111877</v>
       </c>
-      <c r="H98" s="17"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="16">
+      <c r="H99" s="17">
+        <v>6.1239799999999996e-06</v>
+      </c>
+      <c r="I99" s="17">
+        <v>5.9749500000000003e-06</v>
+      </c>
+      <c r="J99" s="17">
+        <v>6.0508499999999998e-06</v>
+      </c>
+      <c r="K99" s="17">
+        <v>5367990</v>
+      </c>
+      <c r="L99">
+        <v>0.0307873</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25">
+      <c r="A100" s="16">
         <v>9.900000000000011</v>
       </c>
-      <c r="B99" s="17">
+      <c r="B100" s="17">
         <v>2.77284e-05</v>
       </c>
-      <c r="C99" s="17">
+      <c r="C100" s="17">
         <v>2.7976299999999998e-05</v>
       </c>
-      <c r="D99" s="17">
+      <c r="D100" s="17">
         <v>2.7861400000000001e-05</v>
       </c>
-      <c r="E99" s="17">
+      <c r="E100" s="17">
         <v>3228020</v>
       </c>
-      <c r="F99">
+      <c r="F100">
         <v>0.011118899999999999</v>
       </c>
-      <c r="H99" s="17"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="16">
+      <c r="H100" s="17">
+        <v>6.1241200000000001e-06</v>
+      </c>
+      <c r="I100" s="17">
+        <v>5.9760500000000002e-06</v>
+      </c>
+      <c r="J100" s="17">
+        <v>6.0514799999999999e-06</v>
+      </c>
+      <c r="K100" s="17">
+        <v>5402710</v>
+      </c>
+      <c r="L100">
+        <v>0.0305863</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25">
+      <c r="A101" s="16">
         <v>10</v>
       </c>
-      <c r="B100" s="17">
+      <c r="B101" s="17">
         <v>2.7738299999999998e-05</v>
       </c>
-      <c r="C100" s="17">
+      <c r="C101" s="17">
         <v>2.79847e-05</v>
       </c>
-      <c r="D100" s="17">
+      <c r="D101" s="17">
         <v>2.78706e-05</v>
       </c>
-      <c r="E100" s="17">
+      <c r="E101" s="17">
         <v>3246650</v>
       </c>
-      <c r="F100">
+      <c r="F101">
         <v>0.011051399999999999</v>
       </c>
-      <c r="H100" s="17"/>
+      <c r="H101" s="17">
+        <v>6.1242499999999999e-06</v>
+      </c>
+      <c r="I101" s="17">
+        <v>5.9771300000000003e-06</v>
+      </c>
+      <c r="J101" s="17">
+        <v>6.0520900000000002e-06</v>
+      </c>
+      <c r="K101" s="17">
+        <v>5437460</v>
+      </c>
+      <c r="L101">
+        <v>0.0303878</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
